--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_34_6.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_34_6.xlsx
@@ -518,661 +518,661 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_34_6_0</t>
+          <t>model_34_6_1</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.9999829791396078</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9990031695130005</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9999981360170126</v>
+        <v>0.9999827095091254</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9999970590593992</v>
+        <v>0.9999983614624256</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9999987486959168</v>
+        <v>0.9999932014517111</v>
       </c>
       <c r="G2" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>1.588822604670326e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.0009304975038127177</v>
       </c>
       <c r="I2" t="n">
-        <v>9.306633346120185e-07</v>
+        <v>1.330397529639988e-05</v>
       </c>
       <c r="J2" t="n">
-        <v>1.132163474106459e-06</v>
+        <v>2.434470059203737e-06</v>
       </c>
       <c r="K2" t="n">
-        <v>1.031413404359238e-06</v>
+        <v>7.869222677801808e-06</v>
       </c>
       <c r="L2" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.0002462554332581754</v>
       </c>
       <c r="M2" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.00398600376902773</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000005871948431</v>
+        <v>1.00001408622929</v>
       </c>
       <c r="O2" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.004155696201640543</v>
       </c>
       <c r="P2" t="n">
-        <v>129.8498867766124</v>
+        <v>128.0998644465023</v>
       </c>
       <c r="Q2" t="n">
-        <v>194.450305494627</v>
+        <v>192.7002831645169</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_34_6_22</t>
+          <t>model_34_6_0</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.9999785556439892</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9990029971027081</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9999981360170126</v>
+        <v>0.9999724296046079</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9999970590593992</v>
+        <v>0.9999995478752729</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9999987486959168</v>
+        <v>0.9999905461120191</v>
       </c>
       <c r="G3" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>2.001736503762881e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.0009306584412526776</v>
       </c>
       <c r="I3" t="n">
-        <v>9.306633346120185e-07</v>
+        <v>2.121373313615318e-05</v>
       </c>
       <c r="J3" t="n">
-        <v>1.132163474106459e-06</v>
+        <v>6.717478611939981e-07</v>
       </c>
       <c r="K3" t="n">
-        <v>1.031413404359238e-06</v>
+        <v>1.094274049867359e-05</v>
       </c>
       <c r="L3" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.0002535205913969714</v>
       </c>
       <c r="M3" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.004474077003989628</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000005871948431</v>
+        <v>1.00001774705325</v>
       </c>
       <c r="O3" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.004664547724665649</v>
       </c>
       <c r="P3" t="n">
-        <v>129.8498867766124</v>
+        <v>127.6378208184829</v>
       </c>
       <c r="Q3" t="n">
-        <v>194.450305494627</v>
+        <v>192.2382395364976</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_34_6_21</t>
+          <t>model_34_6_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.9999861047605837</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9990021217640178</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999981360170126</v>
+        <v>0.9999896341945631</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999970590593992</v>
+        <v>0.999996367615718</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9999987486959168</v>
+        <v>0.9999942233859278</v>
       </c>
       <c r="G4" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>1.29705960646552e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.0009314755314972312</v>
       </c>
       <c r="I4" t="n">
-        <v>9.306633346120185e-07</v>
+        <v>7.975853343884879e-06</v>
       </c>
       <c r="J4" t="n">
-        <v>1.132163474106459e-06</v>
+        <v>5.396843451411798e-06</v>
       </c>
       <c r="K4" t="n">
-        <v>1.031413404359238e-06</v>
+        <v>6.686348397648338e-06</v>
       </c>
       <c r="L4" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.0002435598818543014</v>
       </c>
       <c r="M4" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.003601471374959852</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000005871948431</v>
+        <v>1.000011499508483</v>
       </c>
       <c r="O4" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.003754793467465404</v>
       </c>
       <c r="P4" t="n">
-        <v>129.8498867766124</v>
+        <v>128.5056512070191</v>
       </c>
       <c r="Q4" t="n">
-        <v>194.450305494627</v>
+        <v>193.1060699250338</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_34_6_20</t>
+          <t>model_34_6_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.9999881928369957</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9990000882378396</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9999981360170126</v>
+        <v>0.9999938007299514</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999970590593992</v>
+        <v>0.9999937672230051</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9999987486959168</v>
+        <v>0.9999939397446823</v>
       </c>
       <c r="G5" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>1.102146838994715e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.0009333737389230835</v>
       </c>
       <c r="I5" t="n">
-        <v>9.306633346120185e-07</v>
+        <v>4.769959174673341e-06</v>
       </c>
       <c r="J5" t="n">
-        <v>1.132163474106459e-06</v>
+        <v>9.260397330649196e-06</v>
       </c>
       <c r="K5" t="n">
-        <v>1.031413404359238e-06</v>
+        <v>7.014659093824984e-06</v>
       </c>
       <c r="L5" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.0002416561497358797</v>
       </c>
       <c r="M5" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.003319859694316486</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000005871948431</v>
+        <v>1.000009771445245</v>
       </c>
       <c r="O5" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.003461192994560507</v>
       </c>
       <c r="P5" t="n">
-        <v>129.8498867766124</v>
+        <v>128.8313310307792</v>
       </c>
       <c r="Q5" t="n">
-        <v>194.450305494627</v>
+        <v>193.4317497487938</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_34_6_19</t>
+          <t>model_34_6_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.9999894820524554</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9989976531258893</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9999981360170126</v>
+        <v>0.9999958072853307</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9999970590593992</v>
+        <v>0.9999908052442447</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9999987486959168</v>
+        <v>0.9999927052154941</v>
       </c>
       <c r="G6" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>9.818042348350266e-06</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.0009356468090396624</v>
       </c>
       <c r="I6" t="n">
-        <v>9.306633346120185e-07</v>
+        <v>3.226037524906073e-06</v>
       </c>
       <c r="J6" t="n">
-        <v>1.132163474106459e-06</v>
+        <v>1.366118051748763e-05</v>
       </c>
       <c r="K6" t="n">
-        <v>1.031413404359238e-06</v>
+        <v>8.443609021196853e-06</v>
       </c>
       <c r="L6" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.0002395573457396821</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.003133375551757284</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000005871948431</v>
+        <v>1.000008704508313</v>
       </c>
       <c r="O6" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.003266769835977167</v>
       </c>
       <c r="P6" t="n">
-        <v>129.8498867766124</v>
+        <v>129.0625776179999</v>
       </c>
       <c r="Q6" t="n">
-        <v>194.450305494627</v>
+        <v>193.6629963360145</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_34_6_18</t>
+          <t>model_34_6_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.9999901371394856</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9989947281574274</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9999981360170126</v>
+        <v>0.9999961135753898</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9999970590593992</v>
+        <v>0.9999875555894712</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9999987486959168</v>
+        <v>0.9999907219688927</v>
       </c>
       <c r="G7" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>9.206547360657043e-06</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.0009383771387074975</v>
       </c>
       <c r="I7" t="n">
-        <v>9.306633346120185e-07</v>
+        <v>2.990366056185616e-06</v>
       </c>
       <c r="J7" t="n">
-        <v>1.132163474106459e-06</v>
+        <v>1.848938059835923e-05</v>
       </c>
       <c r="K7" t="n">
-        <v>1.031413404359238e-06</v>
+        <v>1.073918867567216e-05</v>
       </c>
       <c r="L7" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.0002378569591554521</v>
       </c>
       <c r="M7" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.003034229286104965</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000005871948431</v>
+        <v>1.000008162367322</v>
       </c>
       <c r="O7" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.003163402708534965</v>
       </c>
       <c r="P7" t="n">
-        <v>129.8498867766124</v>
+        <v>129.1911913147788</v>
       </c>
       <c r="Q7" t="n">
-        <v>194.450305494627</v>
+        <v>193.7916100327934</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_34_6_17</t>
+          <t>model_34_6_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.9999902963591708</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9989914669854744</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9999981360170126</v>
+        <v>0.9999950694184799</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9999970590593992</v>
+        <v>0.9999841284638167</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9999987486959168</v>
+        <v>0.9999881747828524</v>
       </c>
       <c r="G8" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>9.057922773495365e-06</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.0009414212995767677</v>
       </c>
       <c r="I8" t="n">
-        <v>9.306633346120185e-07</v>
+        <v>3.793780940956329e-06</v>
       </c>
       <c r="J8" t="n">
-        <v>1.132163474106459e-06</v>
+        <v>2.358125943326569e-05</v>
       </c>
       <c r="K8" t="n">
-        <v>1.031413404359238e-06</v>
+        <v>1.368752018711101e-05</v>
       </c>
       <c r="L8" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.0002428719605074856</v>
       </c>
       <c r="M8" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.003009638312737158</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000005871948431</v>
+        <v>1.000008030599307</v>
       </c>
       <c r="O8" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.003137764846520558</v>
       </c>
       <c r="P8" t="n">
-        <v>129.8498867766124</v>
+        <v>129.2237414772908</v>
       </c>
       <c r="Q8" t="n">
-        <v>194.450305494627</v>
+        <v>193.8241601953055</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_34_6_16</t>
+          <t>model_34_6_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.9999901047695917</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9989882056140802</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9999981360170126</v>
+        <v>0.9999930664078593</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9999970590593992</v>
+        <v>0.9999806919449755</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9999987486959168</v>
+        <v>0.9999853034606422</v>
       </c>
       <c r="G9" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>9.23676323568275e-06</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.000944465646615607</v>
       </c>
       <c r="I9" t="n">
-        <v>9.306633346120185e-07</v>
+        <v>5.334975115681501e-06</v>
       </c>
       <c r="J9" t="n">
-        <v>1.132163474106459e-06</v>
+        <v>2.868709426879179e-05</v>
       </c>
       <c r="K9" t="n">
-        <v>1.031413404359238e-06</v>
+        <v>1.701103469223664e-05</v>
       </c>
       <c r="L9" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.0002532628848474643</v>
       </c>
       <c r="M9" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.003039204375438209</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000005871948431</v>
+        <v>1.0000081891562</v>
       </c>
       <c r="O9" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.003168589597720979</v>
       </c>
       <c r="P9" t="n">
-        <v>129.8498867766124</v>
+        <v>129.1846380656966</v>
       </c>
       <c r="Q9" t="n">
-        <v>194.450305494627</v>
+        <v>193.7850567837112</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_34_6_15</t>
+          <t>model_34_6_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.999989647079408</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9989849269582963</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9999981360170126</v>
+        <v>0.9999903497555368</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999970590593992</v>
+        <v>0.9999772825177323</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9999987486959168</v>
+        <v>0.9999822123292045</v>
       </c>
       <c r="G10" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>9.663996931966879e-06</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.000947526127873447</v>
       </c>
       <c r="I10" t="n">
-        <v>9.306633346120185e-07</v>
+        <v>7.425272936083863e-06</v>
       </c>
       <c r="J10" t="n">
-        <v>1.132163474106459e-06</v>
+        <v>3.375267755022851e-05</v>
       </c>
       <c r="K10" t="n">
-        <v>1.031413404359238e-06</v>
+        <v>2.058897524315618e-05</v>
       </c>
       <c r="L10" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.0002627264037944683</v>
       </c>
       <c r="M10" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.00310869698297645</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000005871948431</v>
+        <v>1.000008567934283</v>
       </c>
       <c r="O10" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.003241040649431652</v>
       </c>
       <c r="P10" t="n">
-        <v>129.8498867766124</v>
+        <v>129.0942064684843</v>
       </c>
       <c r="Q10" t="n">
-        <v>194.450305494627</v>
+        <v>193.694625186499</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_34_6_14</t>
+          <t>model_34_6_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.9999890096879723</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9989817573872122</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9999981360170126</v>
+        <v>0.9999871667299606</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9999970590593992</v>
+        <v>0.9999739823313656</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9999987486959168</v>
+        <v>0.9999790362981429</v>
       </c>
       <c r="G11" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>1.025897385885611e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.0009504847833524145</v>
       </c>
       <c r="I11" t="n">
-        <v>9.306633346120185e-07</v>
+        <v>9.874416453166129e-06</v>
       </c>
       <c r="J11" t="n">
-        <v>1.132163474106459e-06</v>
+        <v>3.865595534224428e-05</v>
       </c>
       <c r="K11" t="n">
-        <v>1.031413404359238e-06</v>
+        <v>2.42651858977052e-05</v>
       </c>
       <c r="L11" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.0002711336778691263</v>
       </c>
       <c r="M11" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.00320296329339818</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000005871948431</v>
+        <v>1.000009095430644</v>
       </c>
       <c r="O11" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.003339320071846199</v>
       </c>
       <c r="P11" t="n">
-        <v>129.8498867766124</v>
+        <v>128.9747154739601</v>
       </c>
       <c r="Q11" t="n">
-        <v>194.450305494627</v>
+        <v>193.5751341919748</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_34_6_13</t>
+          <t>model_34_6_10</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.9999882379221863</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9989786365443316</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9999981360170126</v>
+        <v>0.9999836564727764</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9999970590593992</v>
+        <v>0.999970783149165</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9999987486959168</v>
+        <v>0.9999758163283208</v>
       </c>
       <c r="G12" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>1.097938334360501e-05</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.0009533979531922954</v>
       </c>
       <c r="I12" t="n">
-        <v>9.306633346120185e-07</v>
+        <v>1.257534468015287e-05</v>
       </c>
       <c r="J12" t="n">
-        <v>1.132163474106459e-06</v>
+        <v>4.340916540172962e-05</v>
       </c>
       <c r="K12" t="n">
-        <v>1.031413404359238e-06</v>
+        <v>2.799225504094124e-05</v>
       </c>
       <c r="L12" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.0002788123585304474</v>
       </c>
       <c r="M12" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.003313515254771737</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000005871948431</v>
+        <v>1.000009734133363</v>
       </c>
       <c r="O12" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.003454578459089537</v>
       </c>
       <c r="P12" t="n">
-        <v>129.8498867766124</v>
+        <v>128.8389825704893</v>
       </c>
       <c r="Q12" t="n">
-        <v>194.450305494627</v>
+        <v>193.4394012885039</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_34_6_23</t>
+          <t>model_34_6_11</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.99998737144493</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9989755735218919</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9999981360170126</v>
+        <v>0.9999799281426112</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9999970590593992</v>
+        <v>0.9999677005786906</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9999987486959168</v>
+        <v>0.9999725987183398</v>
       </c>
       <c r="G13" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>1.178820182832783e-05</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.0009562571501885184</v>
       </c>
       <c r="I13" t="n">
-        <v>9.306633346120185e-07</v>
+        <v>1.544406672947529e-05</v>
       </c>
       <c r="J13" t="n">
-        <v>1.132163474106459e-06</v>
+        <v>4.798911867392301e-05</v>
       </c>
       <c r="K13" t="n">
-        <v>1.031413404359238e-06</v>
+        <v>3.171659270169915e-05</v>
       </c>
       <c r="L13" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.0002859040930199471</v>
       </c>
       <c r="M13" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.003433395087712427</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000005871948431</v>
+        <v>1.000010451217989</v>
       </c>
       <c r="O13" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.003579561824703978</v>
       </c>
       <c r="P13" t="n">
-        <v>129.8498867766124</v>
+        <v>128.6968227434562</v>
       </c>
       <c r="Q13" t="n">
-        <v>194.450305494627</v>
+        <v>193.2972414614709</v>
       </c>
     </row>
     <row r="14">
@@ -1182,657 +1182,657 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.9999864478596965</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9989726250942267</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9999981360170126</v>
+        <v>0.9999760951336621</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9999970590593992</v>
+        <v>0.999964753465124</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9999987486959168</v>
+        <v>0.9999694332525181</v>
       </c>
       <c r="G14" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>1.265032810317204e-05</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.0009590093779930205</v>
       </c>
       <c r="I14" t="n">
-        <v>9.306633346120185e-07</v>
+        <v>1.839333270107525e-05</v>
       </c>
       <c r="J14" t="n">
-        <v>1.132163474106459e-06</v>
+        <v>5.236781578242789e-05</v>
       </c>
       <c r="K14" t="n">
-        <v>1.031413404359238e-06</v>
+        <v>3.538057424175157e-05</v>
       </c>
       <c r="L14" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.0002924317878268243</v>
       </c>
       <c r="M14" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.003556729973328315</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000005871948431</v>
+        <v>1.000011215564389</v>
       </c>
       <c r="O14" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.003708147331738944</v>
       </c>
       <c r="P14" t="n">
-        <v>129.8498867766124</v>
+        <v>128.5556548122349</v>
       </c>
       <c r="Q14" t="n">
-        <v>194.450305494627</v>
+        <v>193.1560735302495</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_34_6_10</t>
+          <t>model_34_6_13</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.9999855191675527</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9989698748753958</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9999981360170126</v>
+        <v>0.9999723198226147</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9999970590593992</v>
+        <v>0.9999620048132322</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9999987486959168</v>
+        <v>0.9999664136261208</v>
       </c>
       <c r="G15" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>1.35172214544114e-05</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.0009615765865510667</v>
       </c>
       <c r="I15" t="n">
-        <v>9.306633346120185e-07</v>
+        <v>2.129820366601169e-05</v>
       </c>
       <c r="J15" t="n">
-        <v>1.132163474106459e-06</v>
+        <v>5.645164690021205e-05</v>
       </c>
       <c r="K15" t="n">
-        <v>1.031413404359238e-06</v>
+        <v>3.887574872807609e-05</v>
       </c>
       <c r="L15" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.0002982339947577234</v>
       </c>
       <c r="M15" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.003676577410365706</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000005871948431</v>
+        <v>1.000011984137198</v>
       </c>
       <c r="O15" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.003833096922289413</v>
       </c>
       <c r="P15" t="n">
-        <v>129.8498867766124</v>
+        <v>128.4230920443945</v>
       </c>
       <c r="Q15" t="n">
-        <v>194.450305494627</v>
+        <v>193.0235107624092</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_34_6_9</t>
+          <t>model_34_6_14</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.9999846018328992</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9989673233977957</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9999981360170126</v>
+        <v>0.9999686414010263</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9999970590593992</v>
+        <v>0.9999594466498436</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9999987486959168</v>
+        <v>0.9999635506548594</v>
       </c>
       <c r="G16" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>1.437351308718906e-05</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.0009639582788937987</v>
       </c>
       <c r="I16" t="n">
-        <v>9.306633346120185e-07</v>
+        <v>2.412852411772173e-05</v>
       </c>
       <c r="J16" t="n">
-        <v>1.132163474106459e-06</v>
+        <v>6.025245822944766e-05</v>
       </c>
       <c r="K16" t="n">
-        <v>1.031413404359238e-06</v>
+        <v>4.218959712909424e-05</v>
       </c>
       <c r="L16" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.0003033950054757807</v>
       </c>
       <c r="M16" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.003791241628700162</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000005871948431</v>
+        <v>1.000012743310704</v>
       </c>
       <c r="O16" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.00395264263378602</v>
       </c>
       <c r="P16" t="n">
-        <v>129.8498867766124</v>
+        <v>128.3002468280876</v>
       </c>
       <c r="Q16" t="n">
-        <v>194.450305494627</v>
+        <v>192.9006655461023</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_34_6_8</t>
+          <t>model_34_6_15</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.9999837073726467</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9989649541527196</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9999981360170126</v>
+        <v>0.9999650977253171</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9999970590593992</v>
+        <v>0.9999570761116834</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9999987486959168</v>
+        <v>0.9999608502174361</v>
       </c>
       <c r="G17" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>1.520845247058628e-05</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.0009661698651745486</v>
       </c>
       <c r="I17" t="n">
-        <v>9.306633346120185e-07</v>
+        <v>2.68551658559558e-05</v>
       </c>
       <c r="J17" t="n">
-        <v>1.132163474106459e-06</v>
+        <v>6.377450390342851e-05</v>
       </c>
       <c r="K17" t="n">
-        <v>1.031413404359238e-06</v>
+        <v>4.531531493066599e-05</v>
       </c>
       <c r="L17" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.0003080348917332915</v>
       </c>
       <c r="M17" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.003899801593746313</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000005871948431</v>
+        <v>1.000013483553672</v>
       </c>
       <c r="O17" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.004065824221294294</v>
       </c>
       <c r="P17" t="n">
-        <v>129.8498867766124</v>
+        <v>128.1873184021561</v>
       </c>
       <c r="Q17" t="n">
-        <v>194.450305494627</v>
+        <v>192.7877371201707</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_34_6_7</t>
+          <t>model_34_6_16</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.9999828436959921</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9989627633049305</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9999981360170126</v>
+        <v>0.9999616989655773</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9999970590593992</v>
+        <v>0.9999548789242666</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9999987486959168</v>
+        <v>0.9999583108055374</v>
       </c>
       <c r="G18" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>1.601465671666371e-05</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.0009682149254184624</v>
       </c>
       <c r="I18" t="n">
-        <v>9.306633346120185e-07</v>
+        <v>2.947030361835115e-05</v>
       </c>
       <c r="J18" t="n">
-        <v>1.132163474106459e-06</v>
+        <v>6.703899234982642e-05</v>
       </c>
       <c r="K18" t="n">
-        <v>1.031413404359238e-06</v>
+        <v>4.825464798408879e-05</v>
       </c>
       <c r="L18" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.0003121989400631717</v>
       </c>
       <c r="M18" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.004001831670205996</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000005871948431</v>
+        <v>1.000014198320558</v>
       </c>
       <c r="O18" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.00417219792934024</v>
       </c>
       <c r="P18" t="n">
-        <v>129.8498867766124</v>
+        <v>128.084012420492</v>
       </c>
       <c r="Q18" t="n">
-        <v>194.450305494627</v>
+        <v>192.6844311385066</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_34_6_6</t>
+          <t>model_34_6_17</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.9999820215317813</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9989607385579915</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9999981360170126</v>
+        <v>0.9999584913575407</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9999970590593992</v>
+        <v>0.9999528550321211</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9999987486959168</v>
+        <v>0.999955945734557</v>
       </c>
       <c r="G19" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>1.67821109186408e-05</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.0009701049378099712</v>
       </c>
       <c r="I19" t="n">
-        <v>9.306633346120185e-07</v>
+        <v>3.19383618353228e-05</v>
       </c>
       <c r="J19" t="n">
-        <v>1.132163474106459e-06</v>
+        <v>7.004600598727198e-05</v>
       </c>
       <c r="K19" t="n">
-        <v>1.031413404359238e-06</v>
+        <v>5.099218391129739e-05</v>
       </c>
       <c r="L19" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.000315920006340052</v>
       </c>
       <c r="M19" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.0040965974806711</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000005871948431</v>
+        <v>1.000014878732319</v>
       </c>
       <c r="O19" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.004270998116549115</v>
       </c>
       <c r="P19" t="n">
-        <v>129.8498867766124</v>
+        <v>127.9903941303134</v>
       </c>
       <c r="Q19" t="n">
-        <v>194.450305494627</v>
+        <v>192.5908128483281</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_34_6_5</t>
+          <t>model_34_6_18</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.9999812444244003</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9989588805415546</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9999981360170126</v>
+        <v>0.9999554784281753</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9999970590593992</v>
+        <v>0.9999509914808434</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9999987486959168</v>
+        <v>0.9999537492403157</v>
       </c>
       <c r="G20" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>1.750750654766871e-05</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.0009718393145963612</v>
       </c>
       <c r="I20" t="n">
-        <v>9.306633346120185e-07</v>
+        <v>3.425662672075818e-05</v>
       </c>
       <c r="J20" t="n">
-        <v>1.132163474106459e-06</v>
+        <v>7.281479192177611e-05</v>
       </c>
       <c r="K20" t="n">
-        <v>1.031413404359238e-06</v>
+        <v>5.35345946674681e-05</v>
       </c>
       <c r="L20" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.0003193451638171141</v>
       </c>
       <c r="M20" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.004184197240531176</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000005871948431</v>
+        <v>1.000015521855669</v>
       </c>
       <c r="O20" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.004362327179542936</v>
       </c>
       <c r="P20" t="n">
-        <v>129.8498867766124</v>
+        <v>127.9057616468492</v>
       </c>
       <c r="Q20" t="n">
-        <v>194.450305494627</v>
+        <v>192.5061803648638</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_34_6_4</t>
+          <t>model_34_6_19</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.9999805124531822</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9989571647810013</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9999981360170126</v>
+        <v>0.9999526550073989</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9999970590593992</v>
+        <v>0.9999492808024636</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9999987486959168</v>
+        <v>0.9999517119224468</v>
       </c>
       <c r="G21" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>1.819076954999767e-05</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.0009734409017596599</v>
       </c>
       <c r="I21" t="n">
-        <v>9.306633346120185e-07</v>
+        <v>3.642907633672805e-05</v>
       </c>
       <c r="J21" t="n">
-        <v>1.132163474106459e-06</v>
+        <v>7.535644574878443e-05</v>
       </c>
       <c r="K21" t="n">
-        <v>1.031413404359238e-06</v>
+        <v>5.589276104275623e-05</v>
       </c>
       <c r="L21" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.0003224747691931956</v>
       </c>
       <c r="M21" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.00426506383891234</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000005871948431</v>
+        <v>1.000016127624953</v>
       </c>
       <c r="O21" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.004446636436434123</v>
       </c>
       <c r="P21" t="n">
-        <v>129.8498867766124</v>
+        <v>127.8291925202341</v>
       </c>
       <c r="Q21" t="n">
-        <v>194.450305494627</v>
+        <v>192.4296112382487</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_34_6_3</t>
+          <t>model_34_6_20</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.9999798279185931</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9989555917835553</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9999981360170126</v>
+        <v>0.999950021537373</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9999970590593992</v>
+        <v>0.9999477118763869</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9999987486959168</v>
+        <v>0.999949830712194</v>
       </c>
       <c r="G22" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>1.882975254132726e-05</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.0009749092258288449</v>
       </c>
       <c r="I22" t="n">
-        <v>9.306633346120185e-07</v>
+        <v>3.845537046695472e-05</v>
       </c>
       <c r="J22" t="n">
-        <v>1.132163474106459e-06</v>
+        <v>7.768748997922129e-05</v>
       </c>
       <c r="K22" t="n">
-        <v>1.031413404359238e-06</v>
+        <v>5.807023507900786e-05</v>
       </c>
       <c r="L22" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.000325305022117587</v>
       </c>
       <c r="M22" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.004339326277353116</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000005871948431</v>
+        <v>1.000016694136337</v>
       </c>
       <c r="O22" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.004524060380623763</v>
       </c>
       <c r="P22" t="n">
-        <v>129.8498867766124</v>
+        <v>127.7601447142122</v>
       </c>
       <c r="Q22" t="n">
-        <v>194.450305494627</v>
+        <v>192.3605634322268</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_34_6_2</t>
+          <t>model_34_6_21</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.99997918614072</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9989541382306424</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9999981360170126</v>
+        <v>0.99994756729874</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9999970590593992</v>
+        <v>0.9999462698159033</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9999987486959168</v>
+        <v>0.9999480862824112</v>
       </c>
       <c r="G23" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>1.94288240149882e-05</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.0009762660536694826</v>
       </c>
       <c r="I23" t="n">
-        <v>9.306633346120185e-07</v>
+        <v>4.034375700164795e-05</v>
       </c>
       <c r="J23" t="n">
-        <v>1.132163474106459e-06</v>
+        <v>7.983004265901864e-05</v>
       </c>
       <c r="K23" t="n">
-        <v>1.031413404359238e-06</v>
+        <v>6.008938767202949e-05</v>
       </c>
       <c r="L23" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.0003278796167614429</v>
       </c>
       <c r="M23" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.00440781397236637</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000005871948431</v>
+        <v>1.000017225262852</v>
       </c>
       <c r="O23" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.004595463738602804</v>
       </c>
       <c r="P23" t="n">
-        <v>129.8498867766124</v>
+        <v>127.6975056411932</v>
       </c>
       <c r="Q23" t="n">
-        <v>194.450305494627</v>
+        <v>192.2979243592078</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_34_6_1</t>
+          <t>model_34_6_22</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.9999785974273652</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9989528281724417</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9999981360170126</v>
+        <v>0.9999453172506804</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9999970590593992</v>
+        <v>0.9999449623665052</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9999987486959168</v>
+        <v>0.9999464993265929</v>
       </c>
       <c r="G24" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>1.997836209028028e-05</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.000977488935494908</v>
       </c>
       <c r="I24" t="n">
-        <v>9.306633346120185e-07</v>
+        <v>4.207503137769862e-05</v>
       </c>
       <c r="J24" t="n">
-        <v>1.132163474106459e-06</v>
+        <v>8.177259586211154e-05</v>
       </c>
       <c r="K24" t="n">
-        <v>1.031413404359238e-06</v>
+        <v>6.192626639724761e-05</v>
       </c>
       <c r="L24" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.0003301756460619371</v>
       </c>
       <c r="M24" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.004469716108465981</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000005871948431</v>
+        <v>1.000017712473905</v>
       </c>
       <c r="O24" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.004660001176791263</v>
       </c>
       <c r="P24" t="n">
-        <v>129.8498867766124</v>
+        <v>127.6417215311353</v>
       </c>
       <c r="Q24" t="n">
-        <v>194.450305494627</v>
+        <v>192.2421402491499</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_34_6_11</t>
+          <t>model_34_6_23</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.9999780547110426</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9989516336231369</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9999981360170126</v>
+        <v>0.999943243973349</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9999970590593992</v>
+        <v>0.9999437750706638</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9999987486959168</v>
+        <v>0.9999450492091757</v>
       </c>
       <c r="G25" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>2.048496395484306e-05</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.0009786039948363322</v>
       </c>
       <c r="I25" t="n">
-        <v>9.306633346120185e-07</v>
+        <v>4.367029148916074e-05</v>
       </c>
       <c r="J25" t="n">
-        <v>1.132163474106459e-06</v>
+        <v>8.353662997557935e-05</v>
       </c>
       <c r="K25" t="n">
-        <v>1.031413404359238e-06</v>
+        <v>6.360475662482208e-05</v>
       </c>
       <c r="L25" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.0003322341139240023</v>
       </c>
       <c r="M25" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.004526031811072814</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000005871948431</v>
+        <v>1.000018161618448</v>
       </c>
       <c r="O25" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.004718714355447643</v>
       </c>
       <c r="P25" t="n">
-        <v>129.8498867766124</v>
+        <v>127.5916388131097</v>
       </c>
       <c r="Q25" t="n">
-        <v>194.450305494627</v>
+        <v>192.1920575311243</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.9999775519108011</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9989505363432335</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9999981360170126</v>
+        <v>0.9999413317941088</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9999970590593992</v>
+        <v>0.9999426844427934</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9999987486959168</v>
+        <v>0.9999437147987311</v>
       </c>
       <c r="G26" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>2.09543059099403e-05</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.0009796282574610795</v>
       </c>
       <c r="I26" t="n">
-        <v>9.306633346120185e-07</v>
+        <v>4.514159647159295e-05</v>
       </c>
       <c r="J26" t="n">
-        <v>1.132163474106459e-06</v>
+        <v>8.515703889238409e-05</v>
       </c>
       <c r="K26" t="n">
-        <v>1.031413404359238e-06</v>
+        <v>6.514931768198851e-05</v>
       </c>
       <c r="L26" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.0003341017934221912</v>
       </c>
       <c r="M26" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.004577587345965153</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000005871948431</v>
+        <v>1.000018577728992</v>
       </c>
       <c r="O26" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.00477246471619502</v>
       </c>
       <c r="P26" t="n">
-        <v>129.8498867766124</v>
+        <v>127.5463328000421</v>
       </c>
       <c r="Q26" t="n">
-        <v>194.450305494627</v>
+        <v>192.1467515180567</v>
       </c>
     </row>
   </sheetData>
